--- a/CRM Solution Manager/Release/KeyVault/AzureKeyVaultNames.xlsx
+++ b/CRM Solution Manager/Release/KeyVault/AzureKeyVaultNames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-ynaresh\source\repos\DynamicsPOC5\CRM Solution Manager\Release\KeyVault\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D282554-D4AC-4F0E-AC41-BAFA52B666FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2169A583-0EAC-42F0-BF5A-D109AD0B6A3C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{954886C5-4D1A-4ACB-BA8C-D15138D5C5AD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
   <si>
     <t>ClientApplicationSecret</t>
   </si>
@@ -381,6 +381,9 @@
   <si>
     <t>Azure Portal Login--&gt;Function App--&gt;function--&gt;Manage link--&gt;Goto HostKeys--&gt; Copy _master key</t>
   </si>
+  <si>
+    <t>in Pipilines we are using the these color secrets</t>
+  </si>
 </sst>
 </file>
 
@@ -428,7 +431,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +453,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,7 +522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -559,6 +568,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -575,6 +586,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="data:image/jpeg;base64,/9j/4AAQSkZJRgABAQEAYABgAAD/2wBDAAgGBgcGBQgHBwcJCQgKDBQNDAsLDBkSEw8UHRofHh0aHBwgJC4nICIsIxwcKDcpLDAxNDQ0Hyc5PTgyPC4zNDL/2wBDAQkJCQwLDBgNDRgyIRwhMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjL/wAARCAE5AooDASIAAhEBAxEB/8QAHwAAAQUBAQEBAQEAAAAAAAAAAAECAwQFBgcICQoL/8QAtRAAAgEDAwIEAwUFBAQAAAF9AQIDAAQRBRIhMUEGE1FhByJxFDKBkaEII0KxwRVS0fAkM2JyggkKFhcYGRolJicoKSo0NTY3ODk6Q0RFRkdISUpTVFVWV1hZWmNkZWZnaGlqc3R1dnd4eXqDhIWGh4iJipKTlJWWl5iZmqKjpKWmp6ipqrKztLW2t7i5usLDxMXGx8jJytLT1NXW19jZ2uHi4+Tl5ufo6erx8vP09fb3+Pn6/8QAHwEAAwEBAQEBAQEBAQAAAAAAAAECAwQFBgcICQoL/8QAtREAAgECBAQDBAcFBAQAAQJ3AAECAxEEBSExBhJBUQdhcRMiMoEIFEKRobHBCSMzUvAVYnLRChYkNOEl8RcYGRomJygpKjU2Nzg5OkNERUZHSElKU1RVVldYWVpjZGVmZ2hpanN0dXZ3eHl6goOEhYaHiImKkpOUlZaXmJmaoqOkpaanqKmqsrO0tba3uLm6wsPExcbHyMnK0tPU1dbX2Nna4uPk5ebn6Onq8vP09fb3+Pn6/9oADAMBAAIRAxEAPwD3jddf88Yf+/p/+Jo3XX/PGH/v6f8A4mp6KAIN11/zxh/7+n/4mjddf88Yf+/p/wDianooAg3XX/PGH/v6f/iaN11/zxh/7+n/AOJqeigCDddf88Yf+/p/+Jo3XX/PGH/v6f8A4mp6KAIN11/zxh/7+n/4mjddf88Yf+/p/wDianooAg3XX/PGH/v6f/iaN11/zxh/7+n/AOJqeigCDddf88Yf+/p/+Jo3XX/PGH/v6f8A4mp6KAIN11/zxh/7+n/4mjddf88Yf+/p/wDianooAg3XX/PGH/v6f/iaN11/zxh/7+n/AOJqeigCDddf88Yf+/p/+Jo3XX/PGH/v6f8A4mp6KAIN11/zxh/7+n/4mjddf88Yf+/p/wDianooAg3XX/PGH/v6f/iaN11/zxh/7+n/AOJqeigCDddf88Yf+/p/+Jo3XX/PGH/v6f8A4mp6KAIN11/zxh/7+n/4mjddf88Yf+/p/wDianooAg3XX/PGH/v6f/iaN11/zxh/7+n/AOJqeigCDddf88Yf+/p/+Jo3XX/PGH/v6f8A4mp6KAIN11/zxh/7+n/4mjddf88Yf+/p/wDianooAg3XX/PGH/v6f/iaN11/zxh/7+n/AOJqeigCDddf88Yf+/p/+Jo3XX/PGH/v6f8A4mp6KAIN11/zxh/7+n/4mjddf88Yf+/p/wDianooAg3XX/PGH/v6f/iaN11/zxh/7+n/AOJqeigCDddf88Yf+/p/+Jo3XX/PGH/v6f8A4mp6KAIN11/zxh/7+n/4mjddf88Yf+/p/wDianooAg3XX/PGH/v6f/iaN11/zxh/7+n/AOJqeigCDddf88Yf+/p/+Jo3XX/PGH/v6f8A4mp6KAIN11/zxh/7+n/4mjddf88Yf+/p/wDianooAg3XX/PGH/v6f/iaN11/zxh/7+n/AOJqeigCDddf88Yf+/p/+Jo3XX/PGH/v6f8A4mp6KAIN11/zxh/7+n/4mjddf88Yf+/p/wDianooAg3XX/PGH/v6f/iaN11/zxh/7+n/AOJqeigCDddf88Yf+/p/+Jo3XX/PGH/v6f8A4mp6KAIN11/zxh/7+n/4mjddf88Yf+/p/wDianooAg3XX/PGH/v6f/iaN11/zxh/7+n/AOJqeigCDddf88Yf+/p/+Jo3XX/PGH/v6f8A4mp6KAIN11/zxh/7+n/4mjddf88Yf+/p/wDianooAg3XX/PGH/v6f/iaN11/zxh/7+n/AOJqeigCDddf88Yf+/p/+Jo3XX/PGH/v6f8A4mp6KAIN11/zxh/7+n/4mjddf88Yf+/p/wDianooAg3XX/PGH/v6f/iaN11/zxh/7+n/AOJqeigCDddf88Yf+/p/+Jo3XX/PGH/v6f8A4mp6KAIN11/zxh/7+n/4mjddf88Yf+/p/wDianooAKKKKACiiigCjrOr2mg6LearfPttrWIyPggFsdFGSAWJwAM8kgVwVt4kY+EfFGn/APCR2uo6pa6S16lzY3aybS0GH2sMEETrI2MYVZIwMDCr6Bf6fFqKQRzs/lRTxzlFIAdkO5AeM4DhW4I5UA5GQauteH7TXY2W4kmiZrWe0Z4WAJimUB15BHVUYHGcoOcFgQDF1XSpPD02n6ppepagoW8gtrm2u7ya6inimmSM8SOSjqWDKy+hBBBrN1PxpY23i95T4hsobOwuobGeza6QO5cMJHC55VXktsseV8mYDHIfqLfw8Fvre8v9U1DUprVi9t9paNFiYqyMdsSIrEqxGWDY7YyczxaHZJoU2jyq89rcLKtx5jYaYyljIxK4wWLsflwBngAYFAFS78R/ZdN8S3f2Xd/Ym/5PMx5223Sbrj5fv7e/TPtWH4o1fXYZvFltAIY7G10IXEUyXLLNE7JcfOoCfeLRgY3jAUMDkkDSvvBFvfi/SXV9WSLUoFivo45kVbhgmwSnCfK5AXITarbQGUjINrVfC8OrXd7NJf3sMd9Y/YLmCHy9kkeJADlkLBh5zEYIHTINAEE3ii4037S+saZ9mjSxn1CJYLgTSGKHbvVxhVV/3iYCs6k7vm4BNSXxdqunW94dZ8PpazRaTNqcKQ3wmV/KA8yJm2Aq4LpyAynccE4rd1HQ7LVbjzLxXkU2c9k8QbCvFMU35xzn92ACCOp9sZSeCLd7e6jvtX1bUGn059NWW6mQtDC4+fbtQAu2FJdgzHavNAE6anqD6vbwT6YkF3NZ3U9vGb9iu1GgAWUKu0OTJyRv2bTtLBjWb4b8XXB0zRR4kaytpb/TPtkN0LoYlCIjSFwUQI2HDYXcMB+QF56eTT4pNXt9SLP51vBLAigjaVkaNmJ4znMS457n8OYm8JltMsPDX+m3dhbbSL67eICKEIYngURhWZmjLJkrwJC28sqrQBb8OaxLrWt3F388drcaTZXUEBkLBVkkuSGI6BygTcBnBGMsACcXWL1v7Wmhu7rU/sf/AAkSwsllJP5nl/2YHCKIfn278MQvGck966/UNIF5cLdW97dafdhfLa4tRHudMkhGDqykAkkEjIy2CAzZZF4ftI2spPMmee1umu2mdgXnlaJ4i0hxz8rnAGANqgAKoWgDl9EupWj0Ke01W6u9KvdamNm01wZJDbfZZzsdurASqxAclgAgbDKQO9rn7nwpHNctPBquoWZF59thSDydsEpjeN9gaNhhw7MwOfmJYYJOdmzgktbRIZrua7kXOZ5wgduc8hFVeOnAHSgCeiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigArM0vX7DWdpshdsjxiVJJbKaKN1OMEO6BTnIxg8jmtOvOdH1O3j+F9yln4l+130Wg+YLdJ4fMtCsP8ACI1DjBIGWJIIHOeoB6NUN1dwWUKy3D7EaSOIHBPzO4RRx6swH41z7l9B1uMRy6jepJp11dTxtK00k0kTQ7diE7VY+Y/yoFUkgY4GOVbUzcWGqW8V+j2sE2lyo9jqL6m0btd4Yq7qWLYRMJgjgEA7jkA9KuruCyhWW4fYjSRxA4J+Z3CKOPVmA/Gpq88FzbTPqMWmanc6hpUd/pRSSSdrhEmNyvmIkrZLDaImI3HBY9M4p+h395P4zuYp9UhS4XUbhJbW41BxK0AVvLSO1KBAuBE/mKSSA3zckAA7qe7gt5raKV9r3MhiiGCdzBGfHt8qMefSpq820K7trq68KyHV7671V7uRtSgnkZvJm+zz7lZCMQlW3KqjbuUE4bbkek0AFFFFABRRRQAUUUUAFUrnVrK01Ox06efZd33mfZo9jHfsG5uQMDA9SKu1zOv6ZBrHiKxsbh5o0k066IkhkKSRss1qysrDowYAj3HegDoFu4HvZbNXzcRRpK6YPCuWCnPTko35fSpq8y1HWNTeDxNJKfsmqWdlYW98bNmIiHnzF3RtjFVML78hWKBv7ymtSxvry306HVINQtLuyttREcy2+qPdpFauiK+6VlyzJIRKS3KoCAwUkUAdzRXm2p32qRwaDPq072UeoNc3NxFNqMtnEjkKYYXmWPKFYyw2fIGZCTk/e3NJiutQ1uL7dqs1x9n0qxnP2S4KwTTM026QbcblO3p91gRlThcAHW0UUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFQXt5b6dYXF9dyeXbW0TTSvgnaigknA5PAPSsaXxULa3vLq50TVre0t7Oa9FxJFGFkSMAkAb9yuQchZAh4OcEHAB0FFRxyM7yq0LoEbarMRiQYB3DBJxkkc4OVPGMEyUAFFQT3lvazWsM0m2S6lMMIwTucIzkcdPlRjz6fSqk2uWUGuwaO7P9qmUMuF+UEhyqk+rCGYjt+7OSCVDAGlRRRQAUVRg1RLq8uraG3mZrW6FtM/yhVJhWUNyclcOq8DOT0xk1eoAKKgu7y3sYVmuZNkbSxwg4J+eRwiDj1ZgPxp8cjO8qtC6BG2qzEYkGAdwwScZJHODlTxjBIBJRRVHVNUTTI4P9HmuZ7iXyYLeDbvlfazkAsVUYVGbkj7uOpAIBeoqppt62oWK3L2V1ZsWdGgulAkUqxXnaSCDjIIJBBB71boAKKKgu7y3sYVmuZNkbSxwg4J+eRwiDj1ZgPxoAnooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKAMbxTaXt5oEi6dAlxdwz291HA8nliUxTJLs3YIBYIQCeMkZ4rJ1jVz4i8Fa3BZaVqyTS6TPmO5sZIWV2jIWPDAF3JJ+5uHy8kZXPX0UAeb+KNMvpxqR+wzTWbeIoJ54zaPcJJCLOJQxhVlaZFlCkqCfuE4O0ireneHoL660GK/ge/sIrPUCRNYy28KlriExxGGTOEUAhEbIxGpH3QR3tFAHnd5pNr/ZugnVtFe7tbLWr5DEdPa4MVsftSxARqrER8QYAGMBOwFPuNG8UahaahrVtcWSXkl19ssbeewcThISRBF5hmXy1kQHcpUY+0SggbiK9BooA8p1qCz1OTxW0eiand6rPdQ/2VPFbyBoJja25Rg2R9nZWKM7NsyAAS20qr/ENna3l34vjGi6heaw95Eul3FvGzeTP9mt9rK4OICrbGZiUDKAMvtwPTILO3tZrqaGPbJdSiaY5J3OEVAeenyoo49PrRBZ29rNdTQx7ZLqUTTHJO5wioDz0+VFHHp9aAOU+xXf8AwlnnfZZvK/4SLzt/lnb5f9l7N+f7u/5c9M8daoaW8Z8PzyT+HJm8TPa+Tqkt7pbt5uXVJm3hds6Dl1iR/mVVVQOAPQaKAPME0wXHhDUYrvSvtFnBrtpNb28ejSwosINt5pitnDOq8z5xndmQ/wARqe/06N4pmfRb2bQf7dtppbOG1dd9sLGJEJhwGdElEeUCnGw5U7SK9IooA830/Q47wWkCaPe2+hv4immgtJ43jCQfY5FYmPOY4nm3/IwAIkwVw2DfuLGzsbTVtPn0/U7bTzqYSwfSbaTdZA2iEyxCMEou/wA0EqCCzsGBDNXc0UAeaeILbU9STw5canZPc2kbXiv9o0uS8XJIFvLNbRsh3tEG52kIzkbUJG29JHBFcabaeI7DUNa0tdJg+zzy6bLcKbhSRK0sQDOsjKYiC68fOAQSwPe0UAeb6l4cf/hBtcnt9LmfVLi+ufN2oxnktTfM7xoNysUaME+WrKH3HHLZJLo9tJ4KnWWz+3Wyaxa3C2kehTW6QRiSESCK3cM20r5jEqMHfJ6mvSKKAILIW4sLcWkPk2wiXyovKMWxMDC7CAVwMDaQMdMVPRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFcZ4c1uT/hF216/wBT1e78nTlubmGeySGPOzexiPlJv+6QMMRgjPUGuzrmbfw5qa+F5fD9zqtpJaHTjYxPFYski/JsDEmUhsDqABk9xQBp2WtJd3otZLK7tHkjaaA3CKvnRqVDMAGLLjenDhW+bpwcZmp+JZItOlb7Ld2N3b3NmZYJY0lkMMtwqEgRlwdwEigD5sjoMgnT1DR/7QvVuPtc1viyuLTMJ2yL5pjO9W/hZfL44PJ9ucKDwQ0Ud6qXVjZtctaMDpmnC3WMwTGXdtLuCxzjJ4GBwelAFq68SySwTQxWt3p99bXtjHLFdRoSYpp0XcpUsjKw3rkHIIPQirtr4ltbvU2tEtbtI/tMlpHdSRhYppkBLonO442v8xULlGAOcZqjw3eXEt1c6hqiT3U81o4MVt5cccdvKJVRV3E5LF8sWP3hxxgs03wimmeIJ9RjOnSpLcy3AaXTl+1IZMllE4YfLuY4ypODtz0oAZF4qbUr7Q/sdpfW9ne3bqk08ACXMQhmbK8kqCyow3BSw5AI3Y6muZ03wve2TaRFNrP2iz0mRjaxfZVVmTy5I1WRgfmZVcAFQoODkEkFemoAKKKKACiiigAooooAK5nxHqeqafremmwSa4t47a4ubqyhjVpLlVaFMKTyGUSs4APzFdvfI6aqUth5mt2uo+bjyLaaDy9v3vMaJs57Y8rpjv7UAZNz4kisr7Ubl5XudPisLOeBLVBI0ryyTKNmPvFysYHOOnTk1dtfEFvcXEVtJbXNtO8zWzRyhSY5RGJQjFWIyYzvBBIwCCQ2AcWXwFbtb61aQ3SQWd8sItbdLZSloY5Glxhsh1MjsxUgDBKjjGLsfhWIaL9iePS4Zo7tLy3ey08QRxyoVKsU3tk5XBIYEqSMjrQBNN4ot0nigtbC+vZ5ppooo7dF+YQnEr5ZlCqr/JliCW6AggmSHxLa3d7b21ja3d359tDdiWKMLGsMpYK5LEYxtyV+8QeAcNjLvfAlm9lo1tZ/ZFTSo3hSO+skuYpVcDcWT5fnLKrblI53ZzuNbWn6T9hvWud8I3WVva+VDD5ca+UZDlRk4U+ZgL2C9TQBp0UUUAFFFFABRRRQAUVH5q+ho81fQ07MV0SUVH5q+ho81fQ0WYXRJRUfmr6GjzV9DRZhdElFR+avoaPNX0NFmF0SUVH5q+ho81fQ0WYXRJRUfmr6GjzV9DRZhdElFR+avoaPNX0NFmF0SUVH5q+ho81fQ0WYXRJRUfmr6GjzV9DRZhdElFR+avoaPNX0NFmF0SUVH5q+ho81fQ0WYXRJRUfmr6GjzV9DRZhdElFR+avoaPNX0NFmF0SUVH5q+ho81fQ0WYXRJRUfmr6GjzV9DRZhdElFR+avoaPNX0NFmF0SUVH5q+ho81fQ0WYXRJRUfmr6GjzV9DRZhdElFR+avoaPNX0NFmF0SUVH5q+ho81fQ0WYXRJRUfmr6GjzV9DRZhdElFR+avoaPNX0NFmF0SUVH5q+ho81fQ0WYXRJRUfmr6GjzV9DRZhdElFR+avoaPNX0NFmF0SUVH5q+ho81fQ0WYXRJRUfmr6GjzV9DRZhdElFR+avoaPNX0NFmF0SUVH5q+ho81fQ0WYXRJRUfmr6GjzV9DRZhdElFR+avoaPNX0NFmF0SUVH5q+ho81fQ0WYXRJRUfmr6GjzV9DRZhdElFR+avoaPNX0NFmF0SUVH5q+ho81fQ0WYXRJRUfmr6GjzV9DRZhdElFR+avoaPNX0NFmF0SUVH5q+ho81fQ0WYXRJRUfmr6GjzV9DRZhdElFR+avoaPNX0NFmF0SUVH5q+ho81fQ0WYXRDRRRVkBRRRQAUVleIryey0WRrWTyriaWK1ilwG8p5pFiEmDw20vu2nrjHGc1j69pJ0jw3rep22qaqbtNKustJeuys+zcJAmdqMCvGwKBuIAxjCGdbRXm1zdItp4nn0HVNVWCz0aYXMF7cTebDcbC8Tos371Dt35PCnKbclW26sV3fjwidBmvHfXPPbRxcoWV920ss+ST8wt8Tn5uSCuQxwADtKK4SKW7n8I+Fr68/tW8sW0+H7YNPmlFwZXWLbKxjYSOoHm7gCT8wO04yukdZv7XyNL0Cx/tv7Npsdy13c6gqecrZWLDhW3u/luckKvAOeaAOporH0fxBFrU4EEDpC+n2t/G7kbis5kwpA4BAj9T19uaOl+J7zWJ7GO00lAs+n2moTSyXWFiSYvlRhSWYbMjgA85K4G4A6aiuWvvF09noE+v/2dC+kmJGs3a8Eck5kZVjLqyhY0bcG3FyQuCVByogtvEv8AbdzozW80I2au9rcGyuvOgl/0OWUBXAXevKZyBhlPoCQDsKK5mLxPeODdSaSkemrqDae0xusys/2gwKyxhcFS23O5lI+bAOAWtWWt3Wo32pW9ta2Y+x70Ect4Vn8wEhfMjEZ8tH2llbLErtO3nAANyiuP0/xLqUHgXSdW1RtGiuLmKE+Zeal9njlDRBtxbysByc/IAQBnDcVag8T3mqzwx6NpKTLLp9tqAlu7ryVVJjJhTtVzu+TPAI+9kjA3AHTUVgReI5dTgtDolklxNPZxXzJdzmBYopQdmSquSxKtwAR8rZI+XdR0/wAc29/4mfSfKtkBvJrOIC9RrhniViztCBlI8xuAxbJ+X5QGyADraK4/7bdf8Ka+3faZvtn/AAj/AJ32jzD5nmfZ87t3XdnnPXNHiLXdSk0rxXBZ2fkRabbTI199q2vv+yiVTGoXO4FwDkrjggschQDsKKKKYgooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKzdM12x1jabIXbI8YlSSSzmiRlOMEM6hTnI6GkM0qKKhubqGziWW4fYjSJEDgn5nYIo49WYD8aYiaiobm6hs4lluH2I0iRA4J+Z2CKOPVmA/GpqACioZrqG3lt4pX2vcyGKIYJ3MFZ8e3yox59KmoAKKKKACiiigAooooAKKKp3Gq2VpqVlp882y6vt/wBnj2k79g3NyBgYHrigZcoqFbqF72WzV8zxRpK6YPCuWCnPTko35fSpqBBRRRQAUUUUAFFFFABRRRQAUUUUAFFFFAFXUtNs9Y06fT9Qt0uLSddkkT9CP6EHkEcggEc1lJ4WDaTdade61qt9DPZvZhriVNyIy7WPyoAzYx8zhiMcdWzv0UhmPrHh231l5Wkubm3E9nLZXC25QCeNwQN+VJJQklTxgs3UMQX/ANgWv/CV/wDCR+ZN9s+w/Ydm4eX5e/fnGM7s++Mdq1aKAMMeHDBY6ZaWOs6lYx6fbfZUMJibzUAQAuHjZSw2DBAGMt61Bc+DrVvJ/s/UdS0ry7FdP/0KcfNAv3Ad6thly2HGGG4810dFAGA/hKzWe1ksry/09YLNLForWfCywIflRtwJBXLAOpVxuPzVa0jQLXRfL+zSTN5djb2I8xgf3cO/aeAPmPmHPbpwK1aKAOZj8F26aRLpH9raq2mldtvAZkzakOHjMcgTzMoVG3czAAAEHFaMeindZPd6leXstnctcxSTCJTkxPHtIRFG3Dsemc98cVq0UAZX9gWv9m/YfMm8r7d9uzuG7zPtH2jHT7u/j1x3zzUlvpAi1Z9Rnvbm6m2vHCswQLbo7KzKuxVJBKJyxY/KOeTnRooA5y18JLZWNjb2+takktjEbe3ucQGRICEBiwYtpX92hyVLZH3sEir2kaBa6L5f2aSZvLsbexHmMD+7h37TwB8x8w57dOBWrRQBzkfhCG1+wtp+q6lYy2ljHYeZC8bedEn3N6ujKWHzYYAH5m7HFW7Hw+NN1Ge5tdTv0tp53uHsWZHh3vyxBZC6gsS+AwGSeMEitiigDD/4RmH/AI9/t95/ZXT+y/3f2fb/AHPub9mf4N+3Hy42fLU9xoFrc2WtWryTCPWN32gqwyu6FYTs44+VAec85+latFABRRRTEFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABXnmk6lbx/DO5S08R/ar2LQ/MECzRb7QrD/CIwGGCQMsSRgc56+h0UhnNuX0LWUCS6heJJp9zczxtI0zzSRtDjYpO1Sd7/ACoFU5AxwMcu2pGew1O3ivke1gm0yVXstQfUmjdrrDFXdSxbCJhMEcAgfMa9MooA8/FzbyvqMWm6lcX+lx32llJJJ2uESY3K+YiStksNoiJG44LHpnFP0S/vJvGNxFNqcSTrqFwkttcX7iVoAreWkdsUCgYET71JJAbnkiu9ooA850O6t7q58LudWvbrVHupG1GCeRm8qb7PPuVkIxCVbcqqNu4A8NtyPRqKKACiiimIKKKKACiiigArm9e02HV/ENjY3Dyokmn3REkLlHjZZbZlZWHQhgCPpXSUUhnm2oavqTweJHlP2TVLSzsYL02bMREPPmLujbGIBibfkKxQN6qa0rK9vLfT4tTgv7S6s7fUAky2+pvdJFauiq+6VlyxRyJSW5VAQGCkiu3ooA851K91OOHQp9VnezS/a4uJ45tRls40c7TDC8qplCsZb5fkDMhJyeu5pUVzf6zF9t1SW48jS7Gc/ZbgrBNMWmzINuNwO3p90gjIOFx1VFABRRRTEFFFFABRRRQAUVZ2r/dH5UbV/uj8qnmK5StRVnav90flRtX+6Pyo5g5StRVnav8AdH5UbV/uj8qOYOUrUVZ2r/dH5UbV/uj8qOYOUrUVZ2r/AHR+VG1f7o/KjmDlK1FWdq/3R+VG1f7o/KjmDlK1FWdq/wB0flRtX+6Pyo5g5StRVnav90flRtX+6Pyo5g5StRVnav8AdH5UbV/uj8qOYOUrUVZ2r/dH5UbV/uj8qOYOUrUVZ2r/AHR+VG1f7o/KjmDlK1FWdq/3R+VG1f7o/KjmDlK1FWdq/wB0flRtX+6Pyo5g5StRVnav90flRtX+6Pyo5g5StRVnav8AdH5UbV/uj8qOYOUrUVZ2r/dH5UbV/uj8qOYOUrUVZ2r/AHR+VG1f7o/KjmDlK1FWdq/3R+VG1f7o/KjmDlK1FWdq/wB0flRtX+6Pyo5g5StRVnav90flRtX+6Pyo5g5StRVnav8AdH5UbV/uj8qOYOUrUVZ2r/dH5UbV/uj8qOYOUrUVZ2r/AHR+VG1f7o/KjmDlK1FWdq/3R+VG1f7o/KjmDlK1FWdq/wB0flRtX+6Pyo5g5StRVnav90flRtX+6Pyo5g5StRVnav8AdH5UbV/uj8qOYOUrUVZ2r/dH5UbV/uj8qOYOUrUVZ2r/AHR+VG1f7o/KjmDlK1FWdq/3R+VG1f7o/KjmDlK1FWdq/wB0flRtX+6Pyo5g5StRVnav90flRtX+6Pyo5g5StRVnav8AdH5UbV/uj8qOYOUrUVZ2r/dH5UbV/uj8qOYOUrUVZ2r/AHR+VG1f7o/KjmDlK1FWdq/3R+VG1f7o/KjmDlK1FWdq/wB0flRtX+6Pyo5g5StRVnav90flRtX+6Pyo5g5StRVnav8AdH5UbV/uj8qOYOUrUVZ2r/dH5UbV/uj8qOYOUrUVZ2r/AHR+VG1f7o/KjmDlFoooqSgooooAgvby306wuL67k8u2tommlfBO1FBJOByeAelY0vioW1veXVzomrW9pb2c16LiSKMLIkYBIA37lcg5CyBDwc4IOJ/FNpe3mgSLp0CXF3DPb3UcDyeWJTFMkuzdggFghAJ4yRnisnWNXPiLwVrcFlpWrJNLpM+Y7mxkhZXaMhY8MAXckn7m4fLyRlcgFuTxjDa/bl1HSdTsJbSxk1Dy50jbzoo/v7GR2QsPlypYH517HNW4fE+n3Hg8+J4S8lgLNrwqm0uFVSzLwcbxggjPBBGa5fXtP1K0ttftbqS91mTUNHuItOufsm6SEiM74XMahF3koykKpcqVYnYmb/2K7/4S3+wPss39ieb/AG19o8s+X5nmZ+z7v73n/wCkZ3Zx8m3bQBqjxRDNYaXcWVhe3kupWv2uC2i8tZBFhCWYu6oMeYgI3E5bgEAka1lc/bbC3u/Img8+JZPJnTbJHuAO1h2YZwR61xMUMFv4P8K2t/DrtlexadCUu9NtJXltmRYt0ThUY4Y4yjqVOw55UVU1i1jur+K78Y+Gb3UfN0KNEhs7Z7mOG5yxuI0CFvLdsxBZDjhOHGKAPSKK4bSZtS0G/szqunandXNzoVlA0sEf2jddQmTzEdwSFYmVSHchD8xLDFR+EvD6vcaZNqmmuWtNA0tIhcxttjnQzFvlPHmJ8vONy7uMbjkA72qOqaommRwf6PNcz3EvkwW8G3fK+1nIBYqowqM3JH3cdSAfOrq2OoeB7xP7B1BfFLQRrqsj6fIJblVmT7QqzAqsqMqttjSQZTCrtAAGlbWllB4YmguU1MwXF8wgbSdGubJtNbycboovmkRchssoILSsCMFqAO2029bULFbl7K6s2LOjQXSgSKVYrztJBBxkEEggg96t15p4gttT1JPDlxqdk9zaRteK/wBo0uS8XJIFvLNbRsh3tEG52kIzkbUJG3V03w1a3+rqdYtn1WGLRbCJJtQt22zSK0+52jkyPMwVJ3ZZd5GRuOQDsp5Git5JEheZkUssUZAZyB90biBk9OSB7ipK80utK8RXnh7VLbVFe6OlaLdWdufJYveXDB1WYZZsv5Kx8jPNxIuchlG4xtX8ZXaa5o91cyJPC2k3TWDXEMSFF+66qwicShyzNtONhJIVdoB0mqahFpOkXupTq7Q2kDzyLGAWKopYgZIGcD1o1HUItMtknmV2V54YAEAJ3SyLGp5PTLjPtnrXmHhnw3f3Ghajp0oez1S50m6tbqObS54fPuHIBlmui7pOQ24qV/hkYgAZUdnqF8fEEVvpttY6hDcpeW0832q0kijhWGZJHBkI2Ofk2jy2bJII+XLAA3NR1CLTLZJ5ldleeGABACd0sixqeT0y4z7Z61brgo/D6x6NLdrprnUpdf3tI0bNKIP7UD8Z5WPaA+BherdyT3tABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFcZ4c1uT/hF216/1PV7vydOW5uYZ7JIY87N7GI+Um/7pAwxGCM9QaAOzorMstaS7vRayWV3aPJG00BuEVfOjUqGYAMWXG9OHCt83Tg4zNT8SyRadK32W7sbu3ubMywSxpLIYZbhUJAjLg7gJFAHzZHQZBIB01FczdeJZJYJoYrW70++tr2xjliuo0JMU06LuUqWRlYb1yDkEHoRV218S2t3qbWiWt2kf2mS0jupIwsU0yAl0TnccbX+YqFyjAHOMgGzRXLReKm1K+0P7HaX1vZ3t26pNPAAlzEIZmyvJKgsqMNwUsOQCN2OpoAKKKKACiiigAooooAKKK5nxHqeqafremmwSa4t47a4ubqyhjVpLlVaFMKTyGUSs4APzFdvfIAOmornLnxJFZX2o3Lyvc6fFYWc8CWqCRpXlkmUbMfeLlYwOcdOnJq7a+ILe4uIraS2ubad5mtmjlCkxyiMShGKsRkxneCCRgEEhsAgGtRWFN4ot0nigtbC+vZ5ppooo7dF+YQnEr5ZlCqr/JliCW6AggmSHxLa3d7b21ja3d359tDdiWKMLGsMpYK5LEYxtyV+8QeAcNgA2aKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACuZt/Dmpr4Xl8P3Oq2klodONjE8ViySL8mwMSZSGwOoAGT3FdNRQBmaho/9oXq3H2ua3xZXFpmE7ZF80xnerfwsvl8cHk+3OFB4IaKO9VLqxs2uWtGB0zThbrGYJjLu2l3BY5xk8DA4PSuwooA5weG7y4lurnUNUSe6nmtHBitvLjjjt5RKqKu4nJYvlix+8OOMFmm+EU0zxBPqMZ06VJbmW4DS6cv2pDJksonDD5dzHGVJwdueldNRQBzOm+F72ybSIptZ+0WekyMbWL7KqsyeXJGqyMD8zKrgAqFBwcgkgr01FFABRRRQAUUUUAFFFFABVKWw8zW7XUfNx5FtNB5e373mNE2c9seV0x39qu0UAcfL4Ct2t9atIbpILO+WEWtulspS0McjS4w2Q6mR2YqQBglRxjF2PwrENF+xPHpcM0d2l5bvZaeII45UKlWKb2ycrgkMCVJGR1ro6KAOSvfAlm9lo1tZ/ZFTSo3hSO+skuYpVcDcWT5fnLKrblI53ZzuNbWn6T9hvWud8I3WVva+VDD5ca+UZDlRk4U+ZgL2C9TWnRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAZXiS8uLLRJGtJPKuZ5YbWKbAbyXmlWISYPDbS4baeuMcZzWL4g0g6P4Z1zVLbVdWN3HpN1lpL6RlZym4SBM7UcFePLCgbiAMYx0mp6ZZazptxp2o2yXFpcLskifoR/MEHBBHIIBHNZSeFQ2kXWm3ut6tfw3Fm9kGuZY9yIy7WPyooZ8Y+ZwxGOOrZAOUubqNLPxTPoGq6stvZaLOLmC+uJ/NhudheF0Wb97Gdu/J4U5Tbkq23VhvNQHg86BNeu+u+e2jC5Qsr7tpZZ8lj84t8Tn5uSCuQxwN3WfDdvrTytJdXVuJ7OWyuFtygE8Tggb8qSShLFSMYLN1DEGT/hH7T/AIS3/hJPMm+2fYfsGzcPL8vzN+cYzuz74x2oA5eKW8n8H+Fb69/ta8sG06H7YNPmlFyZnWLZMxjYSOijzdwBJ+YHa2MrpHWr+18jSvD9h/bv2bTI7pru51BU85WysWHCtvd/Lc5IVeAc81eHhowWGl2dhrWp2MenWv2VDAYm81AEALh42UsNgwQBjLetQXPgy0fyf7O1LU9J8uxXTv8AQZx88C/cB3q2GXLYcYYbjzQBb0bxDFrdwBBA6Qvp1rfxvIRuKzmTClRwCBH6n73tzR0rxTe6zcWMdppCBZ9OtNRmlkutqwpMXygwpLONmRwAeclcDdO/hCyS4tZLG81DT1gs0sGitbjCzW6H5EbcCQVywDqVcbm+arej+H7TRPL+zSTP5djb2A8xgf3cG/YeAPmPmHPbgYAoAyb7xhcWXh+fxB/ZsL6SYkezka8Eck5kdUjLqyhIkbcG3FyVXBKg5UQW3if+3LrRWt5oR5esPa3Jsrvz4Jf9CllAVwF3rymcqMMp9ATbj8EW6aPLo/8Aa+rNppXbb25mTNoVcPG0cgTzMoVG3czAAAEHFaX9iGSw+z3ep3t3OkvnQXkgiWaB8YBTYirxz1U5DMrZUkUAZviTWJdF1dLwb5YbbRdQu3txIVWVo2tyueozgsAcHG4+tUNY8RarpOoQajd6a6ww6deXMllDdhmMKy2uXbICeYiNIdoLDggOd2a2ZPC8N1YX1vqF/e30t5ayWjXM/liSKJxhlQIiouepO3JIXJIVQL93pFpfX8d3cp5uy1mtTC4DRvHKYy4YEc/6sD0wTnNAHPXfjhre81u3TSnnNk0MVgUnUDUJXdY2VSwAAjldEc5baTzg8Flxrmq/8Sf+x7WErcaxe2s0d1eN8/l/aMDcY3IUmIvx93aqD5SSNK28G6VbJpABupW0xpHR5pi5naQ73MueHJkCyZxw6KRjGKfP4Xhe0tobe/vbSS2vpr+KeHyy4klMpYYdGUr++cDjPTmgDK0nXtStrWSW6svN08axcWZuZLrMxL3rxR7I9pBRSyLy6kBWwpAXc+xiKeLDHqk+rQ6gs8s0En2mQWV5E3mhIlXPl70j2krtV8x7huGWO1/wj9p/Zn2DzJvK+3fb87hu8z7T9ox0+7v49cd881HB4eEepJeXGqaheLDPJcW9vcNGUgd94JUhA5AWR1AZiAD04GADkI7G5tPhpY+KLLV9TTVbXTI9Rc3F9NcQ3BEO90kidyu1ueVwVOCDxii81rUtR8b6r4Otr2bT1urrzDfs2GWFba3Lw2uePNJYsT/AGLAEnjpLHwdDaWljZXGranfWNj5Rtrad40RGiIMZJiRGfbtHDEg9SCQCJ9R8J6bqltqENz5268ulvBKj7ZLaZI0jSSJgMqwEYIPPJPUHFAGUutP4au/EGmSt9q+yWsd/pkEt40k86OCnk5cF2YzIQDl/9cijstVLHxk2kalB4e1JrWa7t2tra8nfUB5091PtLGGEjc0YaRSSSgVSQq4TFdRd+H7S/k06a8kmnnscYlZgplwyP84UAf6yKJ/lA5QD7pZTH/wjwj12fVLTVNQtDctG9zbRtG0MzIAoJDoxUlQqkoVyFHcZoAor4pvTp9/qLaQkdlazzWyyvdcu6TmLewCkJCACzOTlQrfKwAYlx4lWyS2vr63Rh/ZN5qDNYXjTRGKIxH5MhFkLK4IYgY5AOGJrVi0gW2lzWVne3VqZZ5Z/PjEbSI0krSsBuUrjLEcqePfmqg8J6a0KwzedNGbW6tpg7484XLq8zNtAwzMufl2gbjgDjABmy+LtV063vDrPh9LWaLSZtThSG+Eyv5QHmRM2wFXBdOQGU7jgnFa1lrF7Jq8dhqOnJaNcQSXNtsuPNbYjIGEo2gI/71OFLj73zcAtRTwRbvb3Ud9q+rag0+nPpqy3UyFoYXHz7dqAF2wpLsGY7V5rck0+KTV7fUiz+dbwSwIoI2lZGjZieM5zEuOe5/AAt0UUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABWZpev2Gs7TZC7ZHjEqSS2U0UbqcYId0CnORjB5HNadec6PqdvH8L7lLPxL9rvotB8wW6Tw+ZaFYf4RGocYJAyxJBA5z1APRqhuruCyhWW4fYjSRxA4J+Z3CKOPVmA/GufcvoOtxiOXUb1JNOurqeNpWmkmkiaHbsQnarHzH+VAqkkDHAxyrambiw1S3iv0e1gm0uVHsdRfU2jdrvDFXdSxbCJhMEcAgHccgHpV1dwWUKy3D7EaSOIHBPzO4RRx6swH41NXngubaZ9Ri0zU7nUNKjv9KKSSTtcIkxuV8xElbJYbRExG44LHpnFP0O/vJ/GdzFPqkKXC6jcJLa3GoOJWgCt5aR2pQIFwIn8xSSQG+bkgAHdT3cFvNbRSvte5kMUQwTuYIz49vlRjz6VNXm2hXdtdXXhWQ6vfXeqvdyNqUE8jN5M32efcrIRiEq25VUbdygnDbcj0mgAooooAKKKKACiiigAqlc6tZWmp2OnTz7Lu+8z7NHsY79g3NyBgYHqRV2uZ1/TINY8RWNjcPNGkmnXREkMhSSNlmtWVlYdGDAEe470AdAt3A97LZq+biKNJXTB4VywU56clG/L6VNXmWo6xqbweJpJT9k1SzsrC3vjZsxEQ8+Yu6NsYqphffkKxQN/eU1qWN9eW+nQ6pBqFpd2VtqIjmW31R7tIrV0RX3SsuWZJCJSW5VAQGCkigDuaK821O+1SODQZ9Wneyj1Brm5uIptRls4kchTDC8yx5QrGWGz5AzIScn725pMV1qGtxfbtVmuPs+lWM5+yXBWCaZmm3SDbjcp29PusCMqcLgA62iiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAoqpqWoRaXYtdTK7gMkaJGBukd2CIgyQMszKMkgDPJAyaZpeoyajHO02m3unyQy+WY7sJlvlVtylGZWX5sZB6gjtQBeoqpd6hFZXNhBIrlr2cwRlQMBhG8mTz0xG3TPJFW6ACiqkGoRXaJJaK88Rnkgd1AAjaMurE7iDgOhXgHkg9MkW6ACiisL/hJ0ludlnpWp3lst19klu4YlEccgk8tsh2V2VW6sisoAPPBwAbtFVNO1CLU7Z54VdVSeaAhwAd0UjRseD0yhx7Y6VboAKKqajqEWmWyTzK7K88MACAE7pZFjU8nplxn2z1q3QAUUVmza5ZQa7Bo7s/2qZQy4X5QSHKqT6sIZiO37s5IJUMAaVFFFABRWVf66lpfnT7awvdQvliWd4LZFGyNiyhi8jKnJUjbu3HBIGASCz11L2QQx2F6k/2W2unhlRUeNJ2dQGBbhl8tiw9uNx4oA1aKKKACis3+3LJnsliZ5Rd3ktkjKuAssYlL5zg4BhcZGcnHY5qfUdQi0y2SeZXZXnhgAQAndLIsank9MuM+2etAFuiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKAM3XntU0eY3lndXduWjDR2sTSSrl1AdQnzZQ4fK/MNuRyBXG3lvc3OgafFqFpq2raJaatGHE8Dm5ubUQ4V5osK0gW4IyCmWWMMVb7zeiUUAefaHp7x3Vi9jpd7Z6UPEU09rBNEyeTCbKVGYRnmJGmLkKQv3xwMgUaHLdyWngrTH0jU4J9Kl8q9aa2KxxNHaTRZD9HVm6MhYYIyQWUH0GigDzvQdJtbK+0+Gy0V7Oa31+7e5dNPaFTCVvRCd+0K6BWQAgkDco4yBVTwrpkcGo+GfI0DU7PWrfz/7bvZoXQS5jYSeZMTtn3zGN1wXwBn5QMV6fRQBwXh7w+ulaZ4JuLfTXgv2WOPUZjG3nbPscmUlY/NsEgjAVjhSqAAYUC94U1O503SLDw9qGkahHqNgsdkTFbu9vKqKoEyzYCbCvzYYhgQVwWwD19FAHBQ+H1g0w6lHprjWP7fZ1uDGxmSBtRO7YTysZiLEhcKVZifvEmp4f0u5h8dXU92k1td/2ndStIdLmZrqFlfylN2HaPyghjIQhcNEBjIyfSKKAPNIoDe+H4MaNdW/i7z7P7dd3WlyMWdLuEyMZQAskeV3BVfARRjaF+WfxHp1zN4ZsYv7OupGj1aOTV0lt3u/POwjzGRDGbiPeYWwvAVQNg8sxr6JRQBwWneHoL660GK/ge/sIrPUCRNYy28KlriExxGGTOEUAhEbIxGpH3QRHcaN4o1C01DWra4skvJLr7ZY289g4nCQkiCLzDMvlrIgO5Sox9olBA3EV6DRQB5TrUFnqcnito9E1O71We6h/sqeK3kDQTG1tyjBsj7OysUZ2bZkAAltpVX+IbO1vLvxfGNF1C81h7yJdLuLeNm8mf7Nb7WVwcQFW2MzEoGUAZfbgemQWdvazXU0Me2S6lE0xyTucIqA89PlRRx6fWiCzt7Wa6mhj2yXUommOSdzhFQHnp8qKOPT60Ac2l/N4e8Taut9p17JY6jKt3b3dnbyXIDLFFE0cixqWRv3YYHBBBPIIxVTV7a9u9XublbC6QSrojbSm4qUvpHkUlcqSikFsEgDnOOa7aigDzfw/pdzD46up7tJra7/ALTupWkOlzM11Cyv5Sm7DtH5QQxkIQuGiAxkZNvw94fXStM8E3FvprwX7LHHqMxjbztn2OTKSsfm2CQRgKxwpVAAMKB3tFAHneg6Ta2V9p8Nlor2c1vr929y6ae0KmEreiE79oV0CsgBBIG5RxkCqkmmR/a7gPoGptrx8RRTy33kuVe2+1xsjedna0SxeWPLBO0puKDYWHp9FABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABXGeHNbk/4Rdtev9T1e78nTlubmGeySGPOzexiPlJv+6QMMRgjPUGuzrmbfw5qa+F5fD9zqtpJaHTjYxPFYski/JsDEmUhsDqABk9xQBp2WtJd3otZLK7tHkjaaA3CKvnRqVDMAGLLjenDhW+bpwcZmp+JZItOlb7Ld2N3b3NmZYJY0lkMMtwqEgRlwdwEigD5sjoMgnT1DR/7QvVuPtc1viyuLTMJ2yL5pjO9W/hZfL44PJ9ucKDwQ0Ud6qXVjZtctaMDpmnC3WMwTGXdtLuCxzjJ4GBwelAFq68SySwTQxWt3p99bXtjHLFdRoSYpp0XcpUsjKw3rkHIIPQirtr4ltbvU2tEtbtI/tMlpHdSRhYppkBLonO442v8xULlGAOcZqjw3eXEt1c6hqiT3U81o4MVt5cccdvKJVRV3E5LF8sWP3hxxgs03wimmeIJ9RjOnSpLcy3AaXTl+1IZMllE4YfLuY4ypODtz0oAZF4qbUr7Q/sdpfW9ne3bqk08ACXMQhmbK8kqCyow3BSw5AI3Y6muZ03wve2TaRFNrP2iz0mRjaxfZVVmTy5I1WRgfmZVcAFQoODkEkFemoAKKKKACiiigAooooAK5nxHqeqafremmwSa4t47a4ubqyhjVpLlVaFMKTyGUSs4APzFdvfI6aqUth5mt2uo+bjyLaaDy9v3vMaJs57Y8rpjv7UAZNz4kisr7Ubl5XudPisLOeBLVBI0ryyTKNmPvFysYHOOnTk1dtfEFvcXEVtJbXNtO8zWzRyhSY5RGJQjFWIyYzvBBIwCCQ2AcWXwFbtb61aQ3SQWd8sItbdLZSloY5Glxhsh1MjsxUgDBKjjGLsfhWIaL9iePS4Zo7tLy3ey08QRxyoVKsU3tk5XBIYEqSMjrQBNN4ot0nigtbC+vZ5ppooo7dF+YQnEr5ZlCqr/ACZYglugIIJkh8S2t3e29tY2t3d+fbQ3YlijCxrDKWCuSxGMbclfvEHgHDYy73wJZvZaNbWf2RU0qN4UjvrJLmKVXA3Fk+X5yyq25SOd2c7jW1p+k/Yb1rnfCN1lb2vlQw+XGvlGQ5UZOFPmYC9gvU0AadFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRVTUNOg1O3WGd7pFVt4NtdSwNnBH3o2Ukc9M4/KuC07xDH4a8O+GXaXz77WrFLia41jWnjgTZGpZt0hfDFpFAVF5yScBaAPSKK5i38U3uq3EMei6Qkyy6dbaiJby68hVSYyYQ7Vc7/kzwCPvZIwN0eq+OLTTdB03W82SWd5a/a/KvL0QXDR7VfESbWEj4bG3cozgZ5yADq6K5i+8U3trLrckekI9horZurh7razoIUmbykCnc4DkYYqPu4bk7c3xRq+uwzeLLaAQx2NroQuIpkuWWaJ2S4+dQE+8WjAxvGAoYHJIAB3NFYV/rd/Frx0zTtI+2+RardXUjXKxbVZmVEjBB3ufLk4JRRtGWGeJPCM8tz4K0GeeV5ZpdOt3kkkYszsY1JJJ5JJ70AbNFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRWZpev2Gs7TZC7ZHjEqSS2U0UbqcYId0CnORjB5HNAGnRRUN1dwWUKy3D7EaSOIHBPzO4RRx6swH40ATUVDdXcFlCstw+xGkjiBwT8zuEUcerMB+NTUAFFQz3cFvNbRSvte5kMUQwTuYIz49vlRjz6VNQAUUUUAFFFFABRRRQAUUVSudWsrTU7HTp59l3feZ9mj2Md+wbm5AwMD1IoAu0VCt3A97LZq+biKNJXTB4VywU56clG/L6VNQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAVz7eErdbPRobTUdQsptIg+zW9zBIm9otiqVcMpRgdiHleCoIxXQUUAUbTS0tb+S+a4mnuZbWG2keTb8wiMhDYUABiZWzjA6YArGuPA9nLpCabBqOoWkP8AZyaZO0JiLXECKyqG3owBAd+VCn5j6DHT0UAZVz4ftLqy1y0eSYR6zu+0FWGV3QpCdnHHyoDznnP0qvqvheHVru9mkv72GO+sfsFzBD5eySPEgByyFgw85iMEDpkGt2igDG1Dw5FfauupJqGoWczQfZp1tZgq3EQYsFbIJUgl8OhVxvbDdMXtL0+LSdIstNgZ2htIEgjaQgsVRQoJwAM4HpVuigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAK850fU7eP4X3KWfiX7XfRaD5gt0nh8y0Kw/wiNQ4wSBliSCBznr6NRQBzLl9B1uMRy6jepJp11dTxtK00k0kTQ7diE7VY+Y/yoFUkgY4GOVbUzcWGqW8V+j2sE2lyo9jqL6m0btd4Yq7qWLYRMJgjgEA7jn1CigDzwXNtM+oxaZqdzqGlR3+lFJJJ2uESY3K+YiStksNoiYjccFj0zin6Hf3k/jO5in1SFLhdRuEltbjUHErQBW8tI7UoEC4ET+YpJIDfNyQPQKKAPNtCu7a6uvCsh1e+u9Ve7kbUoJ5GbyZvs8+5WQjEJVtyqo27lBOG25HpNFFABRRRQAUUUUAFFFFABXM6/pkGseIrGxuHmjSTTroiSGQpJGyzWrKysOjBgCPcd66aigDzLUdY1N4PE0kp+yapZ2Vhb3xs2YiIefMXdG2MVUwvvyFYoG/vKa1LG+vLfTodUg1C0u7K21ERzLb6o92kVq6Ir7pWXLMkhEpLcqgIDBSRXc0UAebanfapHBoM+rTvZR6g1zc3EU2oy2cSOQphheZY8oVjLDZ8gZkJOT97c0mK61DW4vt2qzXH2fSrGc/ZLgrBNMzTbpBtxuU7en3WBGVOFx1tFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAf/2Q==">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80B48650-B2B4-4580-82D4-94BDC4D5CCE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4953000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1042,15 +1106,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25B193B-9A8B-49E8-9D23-A31F8139F4B4}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="83" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -1071,7 +1135,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1099,7 +1163,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1113,7 +1177,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1127,7 +1191,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1141,7 +1205,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1181,7 +1245,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="30">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1195,7 +1259,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="30">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1264,6 +1328,11 @@
       </c>
       <c r="C16" s="13" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="20" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1275,6 +1344,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/CRM Solution Manager/Release/KeyVault/AzureKeyVaultNames.xlsx
+++ b/CRM Solution Manager/Release/KeyVault/AzureKeyVaultNames.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-ynaresh\source\repos\DynamicsPOC5\CRM Solution Manager\Release\KeyVault\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-ynaresh\source\repos\DynamicsPOC\CRM Solution Manager\Release\KeyVault\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2169A583-0EAC-42F0-BF5A-D109AD0B6A3C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5806B6E-51B4-4013-80F4-2644A605167C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{954886C5-4D1A-4ACB-BA8C-D15138D5C5AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{954886C5-4D1A-4ACB-BA8C-D15138D5C5AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Key-Vault secrets" sheetId="2" r:id="rId2"/>
-    <sheet name="Configuration settings" sheetId="3" r:id="rId3"/>
+    <sheet name="KeyVaults Usage" sheetId="4" r:id="rId3"/>
+    <sheet name="Configuration settings" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="98">
   <si>
     <t>ClientApplicationSecret</t>
   </si>
@@ -384,12 +385,42 @@
   <si>
     <t>in Pipilines we are using the these color secrets</t>
   </si>
+  <si>
+    <t>KeyVault Secret</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Azure Function App settings</t>
+  </si>
+  <si>
+    <t>Azure Function Code</t>
+  </si>
+  <si>
+    <t>Devops Build pipeline</t>
+  </si>
+  <si>
+    <t>Devops Release Pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> û</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>û</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ü</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,8 +461,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,6 +496,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -570,6 +619,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1108,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25B193B-9A8B-49E8-9D23-A31F8139F4B4}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1349,6 +1410,309 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB24A900-5F8F-4C6A-AC20-2090EE646726}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA44A09-FB88-462E-A9D9-8257E778990C}">
   <dimension ref="A1:B19"/>
   <sheetViews>
